--- a/data/n2v/tables/model-1-1325-20230829-58.xlsx
+++ b/data/n2v/tables/model-1-1325-20230829-58.xlsx
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -2908,7 +2908,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -5626,7 +5626,7 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -6310,7 +6310,7 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -6382,7 +6382,7 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -6652,7 +6652,7 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -6994,7 +6994,7 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -8218,7 +8218,7 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -8236,7 +8236,7 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
         </is>
       </c>
       <c r="C453" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -8704,7 +8704,7 @@
         </is>
       </c>
       <c r="C460" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         </is>
       </c>
       <c r="C490" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -9370,7 +9370,7 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
